--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3333146.666553066</v>
+        <v>3327801.94616235</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7851553.588485816</v>
+        <v>7851553.588485822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>675780.6453266389</v>
+        <v>675780.6453266385</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>102.2133755837553</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>166.4457214267536</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>76.62446154719007</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.9429364673744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>329.9807129031635</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>69.27308117145054</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>268.0457851141061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586812</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.9442930587126</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H11" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I11" t="n">
-        <v>27.12336103104289</v>
+        <v>27.12336103104353</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>202.2768185368034</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9651794681599</v>
+        <v>250.9651794681594</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I12" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.28868238335721</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U13" t="n">
         <v>286.2026652973274</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>268.6978712270394</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H14" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I14" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>100.6445882532388</v>
       </c>
       <c r="T14" t="n">
-        <v>202.2768185368032</v>
+        <v>202.2768185368034</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9651794681594</v>
+        <v>250.9651794681599</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I15" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.54563461202603</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S16" t="n">
         <v>186.8382811342274</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U16" t="n">
         <v>286.2026652973274</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.07536815352333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H17" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I17" t="n">
-        <v>27.12336103104289</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>202.2768185368034</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9651794681599</v>
+        <v>250.9651794681594</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I18" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>83.51997652016912</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.650074980538863</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T19" t="n">
         <v>218.8304047938057</v>
@@ -2098,10 +2098,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H20" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I20" t="n">
-        <v>27.12336103104347</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I21" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.8975188529984</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8576382737942</v>
+        <v>69.54563461202603</v>
       </c>
       <c r="H22" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91.29509030843725</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T22" t="n">
         <v>218.8304047938057</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,10 +2335,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H23" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I23" t="n">
-        <v>27.12336103104289</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>100.6445882532388</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2768185368032</v>
+        <v>202.2768185368034</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9651794681608</v>
+        <v>250.9651794681594</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I24" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>82.13079369533548</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8576382737942</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S25" t="n">
         <v>186.8382811342274</v>
@@ -2532,7 +2532,7 @@
         <v>218.8304047938057</v>
       </c>
       <c r="U25" t="n">
-        <v>22.64384053693139</v>
+        <v>286.2026652973274</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H26" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I26" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I27" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.51997652016912</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8576382737942</v>
       </c>
       <c r="H28" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S28" t="n">
         <v>186.8382811342274</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U28" t="n">
-        <v>3.433549234970162</v>
+        <v>286.2026652973274</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,10 +2809,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H29" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I29" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I30" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.5326752512895</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.54563461202603</v>
       </c>
       <c r="H31" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>91.29509030843725</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T31" t="n">
         <v>218.8304047938057</v>
@@ -3009,7 +3009,7 @@
         <v>286.2026652973274</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,10 +3046,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H32" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I32" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I33" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>69.28185269311594</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.8576382737942</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29509030843725</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S34" t="n">
         <v>186.8382811342274</v>
@@ -3243,10 +3243,10 @@
         <v>218.8304047938057</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>189.8906616355592</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,10 +3283,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H35" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396119</v>
       </c>
       <c r="I35" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I36" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.46954710394609</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>80.22064891055888</v>
       </c>
       <c r="G37" t="n">
         <v>165.8576382737942</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>186.8382811342274</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2026652973274</v>
@@ -3520,10 +3520,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H38" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I38" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>202.2768185368034</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9651794681594</v>
+        <v>250.9651794681608</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I39" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>60.38343743324822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8576382737942</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>143.2598308637857</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>186.8382811342274</v>
+        <v>16.24139944821621</v>
       </c>
       <c r="T40" t="n">
         <v>218.8304047938057</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H41" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I41" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I42" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.5813638374786</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.8576382737942</v>
       </c>
       <c r="H43" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29509030843725</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U43" t="n">
         <v>286.2026652973274</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>122.2726496903266</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.5468195191721</v>
       </c>
       <c r="H44" t="n">
-        <v>290.7682569396113</v>
+        <v>290.7682569396112</v>
       </c>
       <c r="I44" t="n">
-        <v>27.12336103104286</v>
+        <v>27.12336103104283</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>202.2768185368034</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9651794681599</v>
+        <v>250.9651794681594</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>87.65957449598952</v>
       </c>
       <c r="I45" t="n">
-        <v>11.91085526658514</v>
+        <v>11.91085526658513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>5.495205195802106</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8576382737942</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S46" t="n">
         <v>186.8382811342274</v>
       </c>
       <c r="T46" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2026652973274</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>30.59640252171884</v>
       </c>
     </row>
   </sheetData>
@@ -4315,22 +4315,22 @@
         <v>683.2303018926191</v>
       </c>
       <c r="E2" t="n">
-        <v>404.2843284558963</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F2" t="n">
-        <v>397.3388277066929</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438684</v>
@@ -4339,13 +4339,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4369,7 +4369,7 @@
         <v>962.1762753293418</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="X2" t="n">
         <v>683.2303018926191</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3972910265347</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="C3" t="n">
-        <v>417.9442617454077</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>269.0098520841565</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4412,19 +4412,19 @@
         <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>547.9495565712182</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N3" t="n">
-        <v>821.3445051365501</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940352</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="W3" t="n">
-        <v>800.1575897914886</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="X3" t="n">
-        <v>800.1575897914886</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="Y3" t="n">
-        <v>592.3972910265347</v>
+        <v>819.4673100372054</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4530,10 +4530,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598056</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C5" t="n">
-        <v>1483.703156598056</v>
+        <v>907.090798542223</v>
       </c>
       <c r="D5" t="n">
-        <v>1125.437457991306</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="E5" t="n">
-        <v>1125.437457991306</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="F5" t="n">
-        <v>714.4515532016985</v>
+        <v>541.879599186269</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>123.9157910844559</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>123.9157910844559</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573868</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598056</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1307.111989013772</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,10 +4819,10 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.111989013772</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1241.747952164185</v>
       </c>
       <c r="F11" t="n">
-        <v>830.7620473745772</v>
+        <v>830.7620473745776</v>
       </c>
       <c r="G11" t="n">
-        <v>416.0682902845042</v>
+        <v>416.0682902845048</v>
       </c>
       <c r="H11" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444934</v>
       </c>
       <c r="I11" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J11" t="n">
-        <v>315.3462694480475</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K11" t="n">
-        <v>696.3782146547036</v>
+        <v>922.3436836317724</v>
       </c>
       <c r="L11" t="n">
-        <v>1619.468400095812</v>
+        <v>1431.949266667935</v>
       </c>
       <c r="M11" t="n">
-        <v>2663.190637309265</v>
+        <v>2475.671503881388</v>
       </c>
       <c r="N11" t="n">
-        <v>3276.195938785159</v>
+        <v>3088.676805357282</v>
       </c>
       <c r="O11" t="n">
-        <v>3841.704200937575</v>
+        <v>3654.185067509698</v>
       </c>
       <c r="P11" t="n">
-        <v>4377.583381329343</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q11" t="n">
-        <v>4665.95053144532</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R11" t="n">
-        <v>4748.2822934851</v>
+        <v>4748.282293485099</v>
       </c>
       <c r="S11" t="n">
-        <v>4646.621093229303</v>
+        <v>4646.621093229302</v>
       </c>
       <c r="T11" t="n">
-        <v>4442.30107450526</v>
+        <v>4442.301074505259</v>
       </c>
       <c r="U11" t="n">
         <v>4188.80089322429</v>
@@ -5117,31 +5117,31 @@
         <v>106.9968128056466</v>
       </c>
       <c r="I12" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J12" t="n">
         <v>207.4049885575573</v>
       </c>
       <c r="K12" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L12" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M12" t="n">
-        <v>1064.839498484392</v>
+        <v>1385.146883283016</v>
       </c>
       <c r="N12" t="n">
-        <v>1590.011591689421</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.221661076863</v>
+        <v>2036.033356410746</v>
       </c>
       <c r="P12" t="n">
-        <v>2396.642572030304</v>
+        <v>2384.454267364188</v>
       </c>
       <c r="Q12" t="n">
-        <v>2579.633527491881</v>
+        <v>2567.445222825764</v>
       </c>
       <c r="R12" t="n">
         <v>2579.633527491881</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.9315617923378</v>
+        <v>708.8215092902481</v>
       </c>
       <c r="C13" t="n">
-        <v>392.9953788644308</v>
+        <v>539.8853263623412</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8787394520951</v>
+        <v>389.7686869500055</v>
       </c>
       <c r="E13" t="n">
-        <v>94.965645869702</v>
+        <v>241.8555933676124</v>
       </c>
       <c r="F13" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="G13" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H13" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I13" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J13" t="n">
         <v>151.8590000931214</v>
@@ -5226,25 +5226,25 @@
         <v>2120.798509533927</v>
       </c>
       <c r="S13" t="n">
-        <v>2025.557416217404</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.557416217404</v>
+        <v>1899.757696610891</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.463814906973</v>
+        <v>1610.664095300459</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.779326701086</v>
+        <v>1610.664095300459</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.362156664125</v>
+        <v>1339.252104162035</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3726057661077</v>
+        <v>1111.262553264018</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5800266225775</v>
+        <v>890.4699741204878</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1241.747952164184</v>
       </c>
       <c r="F14" t="n">
-        <v>830.7620473745769</v>
+        <v>830.7620473745768</v>
       </c>
       <c r="G14" t="n">
-        <v>416.0682902845041</v>
+        <v>416.068290284504</v>
       </c>
       <c r="H14" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I14" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J14" t="n">
-        <v>355.8164917173877</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K14" t="n">
-        <v>736.8484369240439</v>
+        <v>863.7838636750569</v>
       </c>
       <c r="L14" t="n">
-        <v>1246.454019960206</v>
+        <v>1373.389446711219</v>
       </c>
       <c r="M14" t="n">
-        <v>1845.157859015755</v>
+        <v>1972.093285766769</v>
       </c>
       <c r="N14" t="n">
-        <v>2458.163160491649</v>
+        <v>2585.098587242663</v>
       </c>
       <c r="O14" t="n">
-        <v>3400.663602094183</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P14" t="n">
-        <v>4167.391540576036</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q14" t="n">
-        <v>4665.950531445319</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R14" t="n">
         <v>4748.282293485099</v>
@@ -5311,16 +5311,16 @@
         <v>4442.301074505259</v>
       </c>
       <c r="U14" t="n">
-        <v>4188.80089322429</v>
+        <v>4188.800893224289</v>
       </c>
       <c r="V14" t="n">
-        <v>3857.738005880719</v>
+        <v>3857.738005880718</v>
       </c>
       <c r="W14" t="n">
-        <v>3504.969350610605</v>
+        <v>3504.969350610604</v>
       </c>
       <c r="X14" t="n">
-        <v>3131.503592349525</v>
+        <v>3131.503592349524</v>
       </c>
       <c r="Y14" t="n">
         <v>2741.364260373713</v>
@@ -5360,22 +5360,22 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K15" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L15" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M15" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N15" t="n">
-        <v>1590.011591689421</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O15" t="n">
-        <v>2048.221661076863</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P15" t="n">
-        <v>2396.642572030304</v>
+        <v>2579.633527491881</v>
       </c>
       <c r="Q15" t="n">
         <v>2579.633527491881</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.8215092902481</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="C16" t="n">
-        <v>539.8853263623412</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="D16" t="n">
-        <v>389.7686869500055</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="E16" t="n">
-        <v>241.8555933676124</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="F16" t="n">
-        <v>94.96564586970199</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="G16" t="n">
         <v>94.96564586970199</v>
@@ -5439,10 +5439,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K16" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L16" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M16" t="n">
         <v>1086.756001736821</v>
@@ -5466,22 +5466,22 @@
         <v>1849.880428987528</v>
       </c>
       <c r="T16" t="n">
-        <v>1849.880428987528</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U16" t="n">
-        <v>1560.786827677096</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V16" t="n">
-        <v>1306.102339471209</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W16" t="n">
-        <v>1016.685169434249</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X16" t="n">
-        <v>788.6956185362312</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.8215092902481</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2354.764420309591</v>
+        <v>2354.764420309592</v>
       </c>
       <c r="C17" t="n">
         <v>1985.801903369179</v>
@@ -5500,43 +5500,43 @@
         <v>1627.536204762429</v>
       </c>
       <c r="E17" t="n">
-        <v>1241.747952164185</v>
+        <v>1241.747952164184</v>
       </c>
       <c r="F17" t="n">
-        <v>830.762047374577</v>
+        <v>830.7620473745769</v>
       </c>
       <c r="G17" t="n">
         <v>416.0682902845041</v>
       </c>
       <c r="H17" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I17" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J17" t="n">
-        <v>315.3462694480474</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K17" t="n">
-        <v>696.3782146547035</v>
+        <v>863.7838636750569</v>
       </c>
       <c r="L17" t="n">
-        <v>1619.468400095812</v>
+        <v>1373.389446711219</v>
       </c>
       <c r="M17" t="n">
-        <v>2218.172239151361</v>
+        <v>1972.093285766769</v>
       </c>
       <c r="N17" t="n">
-        <v>2831.177540627255</v>
+        <v>2585.098587242663</v>
       </c>
       <c r="O17" t="n">
-        <v>3773.677982229788</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P17" t="n">
-        <v>4221.825199621873</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q17" t="n">
-        <v>4665.950531445319</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R17" t="n">
         <v>4748.282293485099</v>
@@ -5548,13 +5548,13 @@
         <v>4442.301074505259</v>
       </c>
       <c r="U17" t="n">
-        <v>4188.800893224289</v>
+        <v>4188.80089322429</v>
       </c>
       <c r="V17" t="n">
-        <v>3857.738005880718</v>
+        <v>3857.738005880719</v>
       </c>
       <c r="W17" t="n">
-        <v>3504.969350610604</v>
+        <v>3504.969350610605</v>
       </c>
       <c r="X17" t="n">
         <v>3131.503592349525</v>
@@ -5597,19 +5597,19 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K18" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L18" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M18" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.318976488044</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O18" t="n">
-        <v>2368.529045875486</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P18" t="n">
         <v>2579.633527491881</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>436.1318421858241</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="C19" t="n">
-        <v>267.1956592579172</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="D19" t="n">
         <v>262.4986138230295</v>
@@ -5676,10 +5676,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K19" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L19" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M19" t="n">
         <v>1086.756001736821</v>
@@ -5697,28 +5697,28 @@
         <v>2120.798509533927</v>
       </c>
       <c r="R19" t="n">
-        <v>2120.798509533927</v>
+        <v>2038.605965486748</v>
       </c>
       <c r="S19" t="n">
-        <v>2120.798509533927</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="T19" t="n">
-        <v>1899.757696610891</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U19" t="n">
-        <v>1610.664095300459</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V19" t="n">
-        <v>1355.979607094572</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W19" t="n">
-        <v>1066.562437057611</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X19" t="n">
-        <v>838.572886159594</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y19" t="n">
-        <v>617.7803070160638</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2354.764420309592</v>
+        <v>2354.764420309591</v>
       </c>
       <c r="C20" t="n">
-        <v>1985.80190336918</v>
+        <v>1985.801903369179</v>
       </c>
       <c r="D20" t="n">
         <v>1627.536204762429</v>
@@ -5740,40 +5740,40 @@
         <v>1241.747952164185</v>
       </c>
       <c r="F20" t="n">
-        <v>830.7620473745776</v>
+        <v>830.7620473745774</v>
       </c>
       <c r="G20" t="n">
-        <v>416.0682902845048</v>
+        <v>416.0682902845047</v>
       </c>
       <c r="H20" t="n">
-        <v>122.3629802444934</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I20" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J20" t="n">
-        <v>315.3462694480474</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K20" t="n">
-        <v>696.3782146547035</v>
+        <v>863.7838636750569</v>
       </c>
       <c r="L20" t="n">
-        <v>1619.468400095812</v>
+        <v>1373.389446711219</v>
       </c>
       <c r="M20" t="n">
-        <v>2218.172239151361</v>
+        <v>1972.093285766769</v>
       </c>
       <c r="N20" t="n">
-        <v>2831.177540627255</v>
+        <v>2585.098587242663</v>
       </c>
       <c r="O20" t="n">
-        <v>3773.677982229788</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P20" t="n">
-        <v>4221.825199621873</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q20" t="n">
-        <v>4665.950531445319</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R20" t="n">
         <v>4748.282293485099</v>
@@ -5782,19 +5782,19 @@
         <v>4646.621093229302</v>
       </c>
       <c r="T20" t="n">
-        <v>4442.301074505259</v>
+        <v>4442.301074505258</v>
       </c>
       <c r="U20" t="n">
-        <v>4188.80089322429</v>
+        <v>4188.800893224289</v>
       </c>
       <c r="V20" t="n">
-        <v>3857.738005880719</v>
+        <v>3857.738005880718</v>
       </c>
       <c r="W20" t="n">
-        <v>3504.969350610605</v>
+        <v>3504.969350610604</v>
       </c>
       <c r="X20" t="n">
-        <v>3131.503592349525</v>
+        <v>3131.503592349524</v>
       </c>
       <c r="Y20" t="n">
         <v>2741.364260373713</v>
@@ -5834,25 +5834,25 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K21" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L21" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.830453945969</v>
+        <v>1052.651193818276</v>
       </c>
       <c r="N21" t="n">
-        <v>1773.002547150997</v>
+        <v>1577.823287023304</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.212616538439</v>
+        <v>2036.033356410746</v>
       </c>
       <c r="P21" t="n">
-        <v>2579.633527491881</v>
+        <v>2384.454267364188</v>
       </c>
       <c r="Q21" t="n">
-        <v>2579.633527491881</v>
+        <v>2567.445222825764</v>
       </c>
       <c r="R21" t="n">
         <v>2579.633527491881</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.577313866902</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="C22" t="n">
-        <v>763.577313866902</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="D22" t="n">
-        <v>613.4606744545663</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="E22" t="n">
-        <v>499.4227766232547</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="F22" t="n">
-        <v>499.4227766232547</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="G22" t="n">
-        <v>331.8898086699272</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H22" t="n">
-        <v>187.1829088075174</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I22" t="n">
         <v>94.96564586970199</v>
@@ -5913,10 +5913,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K22" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L22" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M22" t="n">
         <v>1086.756001736821</v>
@@ -5937,25 +5937,25 @@
         <v>2038.605965486748</v>
       </c>
       <c r="S22" t="n">
-        <v>2038.605965486748</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="T22" t="n">
-        <v>1817.565152563712</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U22" t="n">
-        <v>1528.47155125328</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V22" t="n">
-        <v>1273.787063047393</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W22" t="n">
-        <v>984.3698930104322</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X22" t="n">
-        <v>984.3698930104322</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.577313866902</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="23">
@@ -5974,55 +5974,55 @@
         <v>1627.536204762429</v>
       </c>
       <c r="E23" t="n">
-        <v>1241.747952164185</v>
+        <v>1241.747952164184</v>
       </c>
       <c r="F23" t="n">
-        <v>830.7620473745772</v>
+        <v>830.7620473745769</v>
       </c>
       <c r="G23" t="n">
-        <v>416.0682902845042</v>
+        <v>416.0682902845041</v>
       </c>
       <c r="H23" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I23" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J23" t="n">
-        <v>482.7519184684005</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K23" t="n">
-        <v>1184.68782212051</v>
+        <v>863.7838636750569</v>
       </c>
       <c r="L23" t="n">
-        <v>1694.293405156672</v>
+        <v>1373.389446711219</v>
       </c>
       <c r="M23" t="n">
-        <v>2292.997244212221</v>
+        <v>1972.093285766769</v>
       </c>
       <c r="N23" t="n">
-        <v>2906.002545688115</v>
+        <v>2585.098587242663</v>
       </c>
       <c r="O23" t="n">
-        <v>3471.51080784053</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P23" t="n">
-        <v>4167.391540576037</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q23" t="n">
-        <v>4665.95053144532</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R23" t="n">
-        <v>4748.2822934851</v>
+        <v>4748.282293485099</v>
       </c>
       <c r="S23" t="n">
-        <v>4646.621093229303</v>
+        <v>4646.621093229302</v>
       </c>
       <c r="T23" t="n">
-        <v>4442.30107450526</v>
+        <v>4442.301074505259</v>
       </c>
       <c r="U23" t="n">
-        <v>4188.800893224289</v>
+        <v>4188.80089322429</v>
       </c>
       <c r="V23" t="n">
         <v>3857.738005880719</v>
@@ -6065,28 +6065,28 @@
         <v>106.9968128056466</v>
       </c>
       <c r="I24" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J24" t="n">
         <v>207.4049885575573</v>
       </c>
       <c r="K24" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L24" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M24" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N24" t="n">
-        <v>1590.011591689421</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O24" t="n">
-        <v>2048.221661076863</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P24" t="n">
-        <v>2396.642572030304</v>
+        <v>2579.633527491881</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.633527491881</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>431.4347967509364</v>
+        <v>263.9018287976089</v>
       </c>
       <c r="C25" t="n">
-        <v>262.4986138230295</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="D25" t="n">
-        <v>262.4986138230295</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="E25" t="n">
-        <v>262.4986138230295</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="F25" t="n">
-        <v>262.4986138230295</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="G25" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H25" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I25" t="n">
-        <v>94.965645869702</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J25" t="n">
         <v>151.8590000931214</v>
@@ -6180,19 +6180,19 @@
         <v>1628.839616064492</v>
       </c>
       <c r="U25" t="n">
-        <v>1605.967049865571</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V25" t="n">
-        <v>1351.282561659684</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W25" t="n">
-        <v>1061.865391622724</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X25" t="n">
-        <v>833.8758407247062</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.0832615811761</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2354.764420309591</v>
+        <v>2354.76442030959</v>
       </c>
       <c r="C26" t="n">
-        <v>1985.801903369179</v>
+        <v>1985.801903369178</v>
       </c>
       <c r="D26" t="n">
-        <v>1627.536204762429</v>
+        <v>1627.536204762428</v>
       </c>
       <c r="E26" t="n">
-        <v>1241.747952164185</v>
+        <v>1241.747952164184</v>
       </c>
       <c r="F26" t="n">
-        <v>830.7620473745774</v>
+        <v>830.7620473745769</v>
       </c>
       <c r="G26" t="n">
-        <v>416.0682902845047</v>
+        <v>416.0682902845037</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3629802444928</v>
+        <v>122.362980244493</v>
       </c>
       <c r="I26" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3462694480474</v>
+        <v>315.3462694480475</v>
       </c>
       <c r="K26" t="n">
-        <v>852.1363963621718</v>
+        <v>1017.282173100157</v>
       </c>
       <c r="L26" t="n">
-        <v>1775.22658180328</v>
+        <v>1526.887756136319</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.930420858829</v>
+        <v>2125.591595191869</v>
       </c>
       <c r="N26" t="n">
-        <v>2986.935722334723</v>
+        <v>2738.596896667763</v>
       </c>
       <c r="O26" t="n">
-        <v>3929.436163937256</v>
+        <v>3681.097338270296</v>
       </c>
       <c r="P26" t="n">
-        <v>4377.583381329342</v>
+        <v>4377.583381329341</v>
       </c>
       <c r="Q26" t="n">
         <v>4665.950531445319</v>
@@ -6259,19 +6259,19 @@
         <v>4442.301074505258</v>
       </c>
       <c r="U26" t="n">
-        <v>4188.800893224289</v>
+        <v>4188.800893224288</v>
       </c>
       <c r="V26" t="n">
         <v>3857.738005880718</v>
       </c>
       <c r="W26" t="n">
-        <v>3504.969350610604</v>
+        <v>3504.969350610603</v>
       </c>
       <c r="X26" t="n">
-        <v>3131.503592349524</v>
+        <v>3131.503592349523</v>
       </c>
       <c r="Y26" t="n">
-        <v>2741.364260373713</v>
+        <v>2741.364260373712</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K27" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L27" t="n">
-        <v>567.2458728301353</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M27" t="n">
-        <v>1064.839498484392</v>
+        <v>1385.146883283016</v>
       </c>
       <c r="N27" t="n">
-        <v>1590.011591689421</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O27" t="n">
-        <v>2048.221661076863</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P27" t="n">
-        <v>2396.642572030304</v>
+        <v>2579.633527491881</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.633527491881</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>853.5284091526579</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="C28" t="n">
-        <v>684.592226224751</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="D28" t="n">
-        <v>534.4755868124153</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="E28" t="n">
-        <v>386.5624932300221</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="F28" t="n">
-        <v>239.6725457321118</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="G28" t="n">
-        <v>239.6725457321118</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H28" t="n">
         <v>94.96564586970199</v>
@@ -6387,10 +6387,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K28" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L28" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M28" t="n">
         <v>1086.756001736821</v>
@@ -6414,22 +6414,22 @@
         <v>1849.880428987528</v>
       </c>
       <c r="T28" t="n">
-        <v>1849.880428987528</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U28" t="n">
-        <v>1846.412197437053</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V28" t="n">
-        <v>1591.727709231166</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W28" t="n">
-        <v>1302.310539194205</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X28" t="n">
-        <v>1074.320988296188</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y28" t="n">
-        <v>853.5284091526579</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2354.764420309591</v>
+        <v>2354.76442030959</v>
       </c>
       <c r="C29" t="n">
-        <v>1985.801903369179</v>
+        <v>1985.801903369178</v>
       </c>
       <c r="D29" t="n">
-        <v>1627.536204762429</v>
+        <v>1627.536204762428</v>
       </c>
       <c r="E29" t="n">
-        <v>1241.747952164185</v>
+        <v>1241.747952164184</v>
       </c>
       <c r="F29" t="n">
-        <v>830.7620473745774</v>
+        <v>830.7620473745769</v>
       </c>
       <c r="G29" t="n">
-        <v>416.0682902845047</v>
+        <v>416.0682902845037</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3629802444928</v>
+        <v>122.362980244493</v>
       </c>
       <c r="I29" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3462694480474</v>
+        <v>315.3462694480475</v>
       </c>
       <c r="K29" t="n">
-        <v>784.1101776543856</v>
+        <v>1017.282173100157</v>
       </c>
       <c r="L29" t="n">
-        <v>1707.200363095494</v>
+        <v>1526.887756136319</v>
       </c>
       <c r="M29" t="n">
-        <v>2750.922600308947</v>
+        <v>2125.591595191869</v>
       </c>
       <c r="N29" t="n">
-        <v>3363.927901784841</v>
+        <v>2738.596896667763</v>
       </c>
       <c r="O29" t="n">
-        <v>3929.436163937256</v>
+        <v>3681.097338270296</v>
       </c>
       <c r="P29" t="n">
-        <v>4377.583381329342</v>
+        <v>4377.583381329341</v>
       </c>
       <c r="Q29" t="n">
         <v>4665.950531445319</v>
@@ -6496,19 +6496,19 @@
         <v>4442.301074505258</v>
       </c>
       <c r="U29" t="n">
-        <v>4188.800893224289</v>
+        <v>4188.800893224288</v>
       </c>
       <c r="V29" t="n">
         <v>3857.738005880718</v>
       </c>
       <c r="W29" t="n">
-        <v>3504.969350610604</v>
+        <v>3504.969350610603</v>
       </c>
       <c r="X29" t="n">
-        <v>3131.503592349524</v>
+        <v>3131.503592349523</v>
       </c>
       <c r="Y29" t="n">
-        <v>2741.364260373713</v>
+        <v>2741.364260373712</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K30" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L30" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M30" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.318976488044</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.212616538439</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P30" t="n">
         <v>2579.633527491881</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>608.6237863445319</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="C31" t="n">
-        <v>608.6237863445319</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="D31" t="n">
-        <v>608.6237863445319</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="E31" t="n">
-        <v>460.7106927621388</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="F31" t="n">
-        <v>331.8898086699272</v>
+        <v>165.2137616394253</v>
       </c>
       <c r="G31" t="n">
-        <v>331.8898086699272</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H31" t="n">
-        <v>187.1829088075174</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I31" t="n">
         <v>94.96564586970199</v>
@@ -6624,10 +6624,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K31" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L31" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M31" t="n">
         <v>1086.756001736821</v>
@@ -6648,25 +6648,25 @@
         <v>2038.605965486748</v>
       </c>
       <c r="S31" t="n">
-        <v>2038.605965486748</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="T31" t="n">
-        <v>1817.565152563712</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U31" t="n">
-        <v>1528.47155125328</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V31" t="n">
-        <v>1528.47155125328</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W31" t="n">
-        <v>1239.054381216319</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X31" t="n">
-        <v>1011.064830318302</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.2722511747717</v>
+        <v>346.862226469665</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>94.96564586970199</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3462694480474</v>
+        <v>355.8164917173874</v>
       </c>
       <c r="K32" t="n">
-        <v>696.3782146547035</v>
+        <v>736.8484369240437</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.983797690866</v>
+        <v>1246.454019960206</v>
       </c>
       <c r="M32" t="n">
-        <v>2249.706034904319</v>
+        <v>1845.157859015755</v>
       </c>
       <c r="N32" t="n">
-        <v>3045.347180695073</v>
+        <v>2458.163160491649</v>
       </c>
       <c r="O32" t="n">
-        <v>3610.855442847489</v>
+        <v>3400.663602094183</v>
       </c>
       <c r="P32" t="n">
-        <v>4377.583381329342</v>
+        <v>4167.391540576036</v>
       </c>
       <c r="Q32" t="n">
         <v>4665.950531445319</v>
@@ -6782,22 +6782,22 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K33" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L33" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M33" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.318976488044</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O33" t="n">
-        <v>2368.529045875486</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P33" t="n">
-        <v>2396.642572030304</v>
+        <v>2579.633527491881</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.633527491881</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>890.6403159859836</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="C34" t="n">
-        <v>721.7041330580768</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="D34" t="n">
-        <v>571.587493645741</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6058242587552</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="F34" t="n">
-        <v>354.7158767608449</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="G34" t="n">
-        <v>187.1829088075174</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H34" t="n">
-        <v>187.1829088075174</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I34" t="n">
         <v>94.96564586970199</v>
@@ -6861,10 +6861,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K34" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L34" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M34" t="n">
         <v>1086.756001736821</v>
@@ -6891,19 +6891,19 @@
         <v>1628.839616064492</v>
       </c>
       <c r="U34" t="n">
-        <v>1628.839616064492</v>
+        <v>1437.030866937664</v>
       </c>
       <c r="V34" t="n">
-        <v>1628.839616064492</v>
+        <v>1182.346378731777</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.422446027531</v>
+        <v>892.9292086948167</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.432895129514</v>
+        <v>664.9396577967993</v>
       </c>
       <c r="Y34" t="n">
-        <v>890.6403159859836</v>
+        <v>444.1470786532692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2354.76442030959</v>
+        <v>2354.764420309592</v>
       </c>
       <c r="C35" t="n">
-        <v>1985.801903369178</v>
+        <v>1985.80190336918</v>
       </c>
       <c r="D35" t="n">
-        <v>1627.536204762428</v>
+        <v>1627.536204762429</v>
       </c>
       <c r="E35" t="n">
-        <v>1241.747952164184</v>
+        <v>1241.747952164185</v>
       </c>
       <c r="F35" t="n">
-        <v>830.7620473745769</v>
+        <v>830.7620473745776</v>
       </c>
       <c r="G35" t="n">
-        <v>416.0682902845037</v>
+        <v>416.0682902845048</v>
       </c>
       <c r="H35" t="n">
-        <v>122.362980244493</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I35" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J35" t="n">
-        <v>315.3462694480474</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K35" t="n">
-        <v>1017.282173100157</v>
+        <v>1048.781360699909</v>
       </c>
       <c r="L35" t="n">
-        <v>1526.887756136319</v>
+        <v>1558.386943736071</v>
       </c>
       <c r="M35" t="n">
-        <v>2125.591595191868</v>
+        <v>2157.090782791621</v>
       </c>
       <c r="N35" t="n">
-        <v>2738.596896667762</v>
+        <v>2770.096084267515</v>
       </c>
       <c r="O35" t="n">
-        <v>3610.855442847489</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P35" t="n">
-        <v>4377.583381329342</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q35" t="n">
-        <v>4665.950531445319</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R35" t="n">
         <v>4748.282293485099</v>
@@ -6967,22 +6967,22 @@
         <v>4646.621093229302</v>
       </c>
       <c r="T35" t="n">
-        <v>4442.301074505258</v>
+        <v>4442.301074505259</v>
       </c>
       <c r="U35" t="n">
-        <v>4188.800893224288</v>
+        <v>4188.80089322429</v>
       </c>
       <c r="V35" t="n">
-        <v>3857.738005880718</v>
+        <v>3857.738005880719</v>
       </c>
       <c r="W35" t="n">
-        <v>3504.969350610603</v>
+        <v>3504.969350610605</v>
       </c>
       <c r="X35" t="n">
-        <v>3131.503592349523</v>
+        <v>3131.503592349525</v>
       </c>
       <c r="Y35" t="n">
-        <v>2741.364260373712</v>
+        <v>2741.364260373713</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K36" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L36" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M36" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.318976488044</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O36" t="n">
-        <v>2368.529045875486</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P36" t="n">
         <v>2579.633527491881</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3056.538554468017</v>
+        <v>657.1726551088602</v>
       </c>
       <c r="C37" t="n">
-        <v>3056.538554468017</v>
+        <v>488.2364721809533</v>
       </c>
       <c r="D37" t="n">
-        <v>3056.538554468017</v>
+        <v>488.2364721809533</v>
       </c>
       <c r="E37" t="n">
-        <v>3036.872345272111</v>
+        <v>488.2364721809533</v>
       </c>
       <c r="F37" t="n">
-        <v>2889.982397774201</v>
+        <v>407.2055136854393</v>
       </c>
       <c r="G37" t="n">
-        <v>2722.449429820874</v>
+        <v>239.6725457321118</v>
       </c>
       <c r="H37" t="n">
-        <v>2722.449429820874</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I37" t="n">
-        <v>2722.449429820874</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J37" t="n">
-        <v>2779.342784044293</v>
+        <v>151.8590000931214</v>
       </c>
       <c r="K37" t="n">
-        <v>3002.672878694785</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L37" t="n">
-        <v>3343.984944589934</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M37" t="n">
-        <v>3714.239785687992</v>
+        <v>1086.756001736821</v>
       </c>
       <c r="N37" t="n">
-        <v>4081.125410646853</v>
+        <v>1453.641626695681</v>
       </c>
       <c r="O37" t="n">
-        <v>4403.987371941032</v>
+        <v>1776.50358798986</v>
       </c>
       <c r="P37" t="n">
-        <v>4656.73087372667</v>
+        <v>2029.247089775498</v>
       </c>
       <c r="Q37" t="n">
-        <v>4748.282293485099</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="R37" t="n">
-        <v>4748.282293485099</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="S37" t="n">
-        <v>4559.556756985879</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="T37" t="n">
-        <v>4338.515944062843</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="U37" t="n">
-        <v>4049.422342752411</v>
+        <v>1831.704908223495</v>
       </c>
       <c r="V37" t="n">
-        <v>3794.737854546524</v>
+        <v>1577.020420017608</v>
       </c>
       <c r="W37" t="n">
-        <v>3505.320684509564</v>
+        <v>1287.603249980647</v>
       </c>
       <c r="X37" t="n">
-        <v>3277.331133611547</v>
+        <v>1059.61369908263</v>
       </c>
       <c r="Y37" t="n">
-        <v>3056.538554468017</v>
+        <v>838.8211199391</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1241.747952164184</v>
       </c>
       <c r="F38" t="n">
-        <v>830.7620473745769</v>
+        <v>830.7620473745762</v>
       </c>
       <c r="G38" t="n">
         <v>416.0682902845037</v>
       </c>
       <c r="H38" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I38" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3462694480474</v>
+        <v>482.7519184684006</v>
       </c>
       <c r="K38" t="n">
-        <v>1017.282173100157</v>
+        <v>1048.781360699909</v>
       </c>
       <c r="L38" t="n">
-        <v>1526.887756136319</v>
+        <v>1558.386943736071</v>
       </c>
       <c r="M38" t="n">
-        <v>2125.591595191868</v>
+        <v>2157.090782791621</v>
       </c>
       <c r="N38" t="n">
-        <v>2986.935722334723</v>
+        <v>2770.096084267515</v>
       </c>
       <c r="O38" t="n">
-        <v>3929.436163937256</v>
+        <v>3335.604346419931</v>
       </c>
       <c r="P38" t="n">
-        <v>4377.583381329342</v>
+        <v>4102.332284901784</v>
       </c>
       <c r="Q38" t="n">
-        <v>4665.950531445319</v>
+        <v>4600.891275771067</v>
       </c>
       <c r="R38" t="n">
         <v>4748.282293485099</v>
@@ -7204,7 +7204,7 @@
         <v>4646.621093229302</v>
       </c>
       <c r="T38" t="n">
-        <v>4442.301074505258</v>
+        <v>4442.301074505259</v>
       </c>
       <c r="U38" t="n">
         <v>4188.800893224288</v>
@@ -7213,10 +7213,10 @@
         <v>3857.738005880718</v>
       </c>
       <c r="W38" t="n">
-        <v>3504.969350610603</v>
+        <v>3504.969350610604</v>
       </c>
       <c r="X38" t="n">
-        <v>3131.503592349523</v>
+        <v>3131.503592349524</v>
       </c>
       <c r="Y38" t="n">
         <v>2741.364260373712</v>
@@ -7256,22 +7256,22 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K39" t="n">
-        <v>477.7365590110353</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L39" t="n">
-        <v>887.5532576287592</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M39" t="n">
         <v>1385.146883283016</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.318976488044</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O39" t="n">
-        <v>2368.529045875486</v>
+        <v>2368.529045875487</v>
       </c>
       <c r="P39" t="n">
-        <v>2396.642572030304</v>
+        <v>2579.633527491881</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.633527491881</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>468.1988848301345</v>
+        <v>647.7159390957445</v>
       </c>
       <c r="C40" t="n">
-        <v>468.1988848301345</v>
+        <v>478.7797561678376</v>
       </c>
       <c r="D40" t="n">
-        <v>468.1988848301345</v>
+        <v>478.7797561678376</v>
       </c>
       <c r="E40" t="n">
-        <v>468.1988848301345</v>
+        <v>478.7797561678376</v>
       </c>
       <c r="F40" t="n">
-        <v>407.2055136854393</v>
+        <v>331.8898086699272</v>
       </c>
       <c r="G40" t="n">
-        <v>239.6725457321118</v>
+        <v>331.8898086699272</v>
       </c>
       <c r="H40" t="n">
-        <v>94.96564586970199</v>
+        <v>187.1829088075174</v>
       </c>
       <c r="I40" t="n">
         <v>94.96564586970199</v>
@@ -7335,10 +7335,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K40" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L40" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M40" t="n">
         <v>1086.756001736821</v>
@@ -7359,25 +7359,25 @@
         <v>2120.798509533927</v>
       </c>
       <c r="S40" t="n">
-        <v>1932.072973034707</v>
+        <v>2104.39305554583</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.032160111671</v>
+        <v>1883.352242622794</v>
       </c>
       <c r="U40" t="n">
-        <v>1421.938558801239</v>
+        <v>1594.258641312362</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.254070595352</v>
+        <v>1339.574153106475</v>
       </c>
       <c r="W40" t="n">
-        <v>877.8369005583916</v>
+        <v>1050.156983069514</v>
       </c>
       <c r="X40" t="n">
-        <v>649.8473496603742</v>
+        <v>1050.156983069514</v>
       </c>
       <c r="Y40" t="n">
-        <v>649.8473496603742</v>
+        <v>829.3644039259842</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2354.764420309591</v>
+        <v>2354.764420309592</v>
       </c>
       <c r="C41" t="n">
         <v>1985.801903369179</v>
@@ -7396,34 +7396,34 @@
         <v>1627.536204762429</v>
       </c>
       <c r="E41" t="n">
-        <v>1241.747952164185</v>
+        <v>1241.747952164184</v>
       </c>
       <c r="F41" t="n">
-        <v>830.7620473745774</v>
+        <v>830.7620473745769</v>
       </c>
       <c r="G41" t="n">
         <v>416.0682902845041</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I41" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J41" t="n">
-        <v>315.3462694480474</v>
+        <v>411.9047127220517</v>
       </c>
       <c r="K41" t="n">
-        <v>1017.282173100157</v>
+        <v>1113.840616374161</v>
       </c>
       <c r="L41" t="n">
-        <v>1526.887756136319</v>
+        <v>1623.446199410324</v>
       </c>
       <c r="M41" t="n">
-        <v>2125.591595191868</v>
+        <v>2222.150038465873</v>
       </c>
       <c r="N41" t="n">
-        <v>2738.596896667762</v>
+        <v>2835.155339941767</v>
       </c>
       <c r="O41" t="n">
         <v>3400.663602094183</v>
@@ -7444,16 +7444,16 @@
         <v>4442.301074505259</v>
       </c>
       <c r="U41" t="n">
-        <v>4188.800893224289</v>
+        <v>4188.80089322429</v>
       </c>
       <c r="V41" t="n">
-        <v>3857.738005880718</v>
+        <v>3857.738005880719</v>
       </c>
       <c r="W41" t="n">
-        <v>3504.969350610604</v>
+        <v>3504.969350610605</v>
       </c>
       <c r="X41" t="n">
-        <v>3131.503592349524</v>
+        <v>3131.503592349525</v>
       </c>
       <c r="Y41" t="n">
         <v>2741.364260373713</v>
@@ -7493,16 +7493,16 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K42" t="n">
-        <v>207.4049885575573</v>
+        <v>477.7365590110354</v>
       </c>
       <c r="L42" t="n">
-        <v>555.0575681640189</v>
+        <v>887.5532576287594</v>
       </c>
       <c r="M42" t="n">
-        <v>1052.651193818276</v>
+        <v>1385.146883283016</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.823287023304</v>
+        <v>1910.318976488045</v>
       </c>
       <c r="O42" t="n">
         <v>2036.033356410746</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3740.762423994973</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="C43" t="n">
-        <v>3571.826241067066</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="D43" t="n">
-        <v>3421.70960165473</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="E43" t="n">
-        <v>3273.796508072337</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="F43" t="n">
-        <v>3126.906560574427</v>
+        <v>262.4986138230295</v>
       </c>
       <c r="G43" t="n">
-        <v>2959.373592621099</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="H43" t="n">
-        <v>2814.666692758689</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="I43" t="n">
-        <v>2722.449429820874</v>
+        <v>94.96564586970199</v>
       </c>
       <c r="J43" t="n">
-        <v>2779.342784044293</v>
+        <v>151.8590000931214</v>
       </c>
       <c r="K43" t="n">
-        <v>3002.672878694785</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L43" t="n">
-        <v>3343.984944589934</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M43" t="n">
-        <v>3714.239785687992</v>
+        <v>1086.756001736821</v>
       </c>
       <c r="N43" t="n">
-        <v>4081.125410646853</v>
+        <v>1453.641626695681</v>
       </c>
       <c r="O43" t="n">
-        <v>4403.987371941032</v>
+        <v>1776.50358798986</v>
       </c>
       <c r="P43" t="n">
-        <v>4656.73087372667</v>
+        <v>2029.247089775498</v>
       </c>
       <c r="Q43" t="n">
-        <v>4748.282293485099</v>
+        <v>2120.798509533927</v>
       </c>
       <c r="R43" t="n">
-        <v>4748.282293485099</v>
+        <v>2038.605965486748</v>
       </c>
       <c r="S43" t="n">
-        <v>4748.282293485099</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="T43" t="n">
-        <v>4748.282293485099</v>
+        <v>1628.839616064492</v>
       </c>
       <c r="U43" t="n">
-        <v>4459.188692174667</v>
+        <v>1339.74601475406</v>
       </c>
       <c r="V43" t="n">
-        <v>4204.504203968781</v>
+        <v>1085.061526548173</v>
       </c>
       <c r="W43" t="n">
-        <v>3915.08703393182</v>
+        <v>795.6443565112124</v>
       </c>
       <c r="X43" t="n">
-        <v>3915.08703393182</v>
+        <v>567.6548056131951</v>
       </c>
       <c r="Y43" t="n">
-        <v>3915.08703393182</v>
+        <v>444.1470786532692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2354.764420309591</v>
+        <v>2354.76442030959</v>
       </c>
       <c r="C44" t="n">
-        <v>1985.801903369179</v>
+        <v>1985.801903369178</v>
       </c>
       <c r="D44" t="n">
-        <v>1627.536204762429</v>
+        <v>1627.536204762428</v>
       </c>
       <c r="E44" t="n">
         <v>1241.747952164184</v>
@@ -7639,34 +7639,34 @@
         <v>830.7620473745769</v>
       </c>
       <c r="G44" t="n">
-        <v>416.0682902845041</v>
+        <v>416.0682902845037</v>
       </c>
       <c r="H44" t="n">
-        <v>122.3629802444928</v>
+        <v>122.3629802444927</v>
       </c>
       <c r="I44" t="n">
         <v>94.96564586970199</v>
       </c>
       <c r="J44" t="n">
-        <v>482.7519184684004</v>
+        <v>315.3462694480475</v>
       </c>
       <c r="K44" t="n">
-        <v>863.7838636750566</v>
+        <v>696.3782146547037</v>
       </c>
       <c r="L44" t="n">
-        <v>1707.200363095494</v>
+        <v>1205.983797690866</v>
       </c>
       <c r="M44" t="n">
-        <v>2750.922600308947</v>
+        <v>2222.150038465873</v>
       </c>
       <c r="N44" t="n">
-        <v>3363.927901784841</v>
+        <v>2835.155339941767</v>
       </c>
       <c r="O44" t="n">
-        <v>3929.436163937256</v>
+        <v>3400.663602094183</v>
       </c>
       <c r="P44" t="n">
-        <v>4377.583381329342</v>
+        <v>4167.391540576036</v>
       </c>
       <c r="Q44" t="n">
         <v>4665.950531445319</v>
@@ -7693,7 +7693,7 @@
         <v>3131.503592349523</v>
       </c>
       <c r="Y44" t="n">
-        <v>2741.364260373713</v>
+        <v>2741.364260373712</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>207.4049885575573</v>
       </c>
       <c r="K45" t="n">
-        <v>477.7365590110353</v>
+        <v>207.4049885575573</v>
       </c>
       <c r="L45" t="n">
-        <v>887.5532576287592</v>
+        <v>617.2216871752813</v>
       </c>
       <c r="M45" t="n">
-        <v>1385.146883283016</v>
+        <v>1114.815312829538</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.318976488044</v>
+        <v>1577.823287023304</v>
       </c>
       <c r="O45" t="n">
-        <v>2048.221661076863</v>
+        <v>2036.033356410746</v>
       </c>
       <c r="P45" t="n">
-        <v>2396.642572030304</v>
+        <v>2384.454267364188</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.633527491881</v>
+        <v>2567.445222825764</v>
       </c>
       <c r="R45" t="n">
         <v>2579.633527491881</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.4063056866044</v>
+        <v>576.1416966133462</v>
       </c>
       <c r="C46" t="n">
-        <v>241.8555933676124</v>
+        <v>407.2055136854393</v>
       </c>
       <c r="D46" t="n">
-        <v>241.8555933676124</v>
+        <v>407.2055136854393</v>
       </c>
       <c r="E46" t="n">
-        <v>241.8555933676124</v>
+        <v>407.2055136854393</v>
       </c>
       <c r="F46" t="n">
-        <v>94.96564586970199</v>
+        <v>407.2055136854393</v>
       </c>
       <c r="G46" t="n">
-        <v>94.96564586970199</v>
+        <v>239.6725457321118</v>
       </c>
       <c r="H46" t="n">
         <v>94.96564586970199</v>
@@ -7809,10 +7809,10 @@
         <v>151.8590000931214</v>
       </c>
       <c r="K46" t="n">
-        <v>375.1890947436131</v>
+        <v>375.1890947436132</v>
       </c>
       <c r="L46" t="n">
-        <v>716.5011606387617</v>
+        <v>716.5011606387618</v>
       </c>
       <c r="M46" t="n">
         <v>1086.756001736821</v>
@@ -7830,28 +7830,28 @@
         <v>2120.798509533927</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.798509533927</v>
+        <v>2038.605965486748</v>
       </c>
       <c r="S46" t="n">
-        <v>1932.072973034707</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.032160111671</v>
+        <v>1849.880428987528</v>
       </c>
       <c r="U46" t="n">
-        <v>1421.938558801239</v>
+        <v>1560.786827677096</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.254070595352</v>
+        <v>1306.102339471209</v>
       </c>
       <c r="W46" t="n">
-        <v>877.8369005583916</v>
+        <v>1016.685169434249</v>
       </c>
       <c r="X46" t="n">
-        <v>649.8473496603742</v>
+        <v>788.6956185362312</v>
       </c>
       <c r="Y46" t="n">
-        <v>429.0547705168441</v>
+        <v>757.7901614435859</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>186.3618508321561</v>
       </c>
       <c r="O3" t="n">
-        <v>132.2325872309998</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451769</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>59.15133328961167</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>88.61814444412386</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>40.87901239327306</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>186.8661586109619</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>186.8661586109619</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.3314966742105</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>186.8661586109619</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>157.3314966742105</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>186.8661586109619</v>
       </c>
       <c r="P23" t="n">
-        <v>250.2358740842639</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>157.3314966742103</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>250.8472986534937</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>88.61814444412329</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>250.8472986534937</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>40.8790123932726</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>184.4806508230909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>186.8661586109617</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>309.8487717447588</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>186.8661586109617</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>250.8472986534966</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>97.53378108485276</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>97.5337810848539</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>337.1827438224999</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>421.6791936560177</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8576382737942</v>
@@ -23436,7 +23436,7 @@
         <v>143.2598308637857</v>
       </c>
       <c r="I13" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S13" t="n">
-        <v>92.54959875087022</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T13" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>17.8251271095516</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8576382737942</v>
+        <v>96.31200366176817</v>
       </c>
       <c r="H16" t="n">
         <v>143.2598308637857</v>
       </c>
       <c r="I16" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.5092851985715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.31200366176817</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>143.9653980376735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>143.2598308637857</v>
       </c>
       <c r="I19" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.37061860670738</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8382811342274</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>33.53644379357073</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>96.31200366176817</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8382811342274</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.70118648660181</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8576382737942</v>
       </c>
       <c r="H25" t="n">
         <v>143.2598308637857</v>
       </c>
       <c r="I25" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>263.558824760396</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>96.31200366176817</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8576382737942</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I28" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.7691160623572</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>17.88837277164177</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8576382737942</v>
+        <v>96.31200366176817</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8382811342274</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>77.15210995345323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>143.2598308637857</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2026652973274</v>
+        <v>96.31200366176819</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>126.9644155426231</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>65.20039911237237</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>186.8382811342274</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>85.03761058968303</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.8576382737942</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29509030843725</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.37061860670738</v>
+        <v>81.37061860670735</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>170.5968816860112</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.250616344458706</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>143.2598308637857</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.37061860670738</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>186.8382811342274</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>218.8304047938057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>96.31200366176817</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.7516159028257</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8576382737942</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>143.2598308637857</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29509030843725</v>
+        <v>91.29509030843724</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.37061860670738</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.8304047938057</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>187.988250830376</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>701346.1324899467</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>701346.1324899467</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>701346.1324899467</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>701346.1324899467</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>701346.1324899467</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>701346.1324899466</v>
+        <v>701346.1324899464</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>701346.1324899464</v>
+        <v>701346.1324899466</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778545</v>
@@ -26325,37 +26325,37 @@
         <v>718664.1735180558</v>
       </c>
       <c r="F2" t="n">
+        <v>718664.1735180558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>718664.1735180559</v>
+      </c>
+      <c r="H2" t="n">
+        <v>718664.1735180558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>718664.1735180556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>718664.1735180556</v>
+      </c>
+      <c r="K2" t="n">
         <v>718664.1735180557</v>
       </c>
-      <c r="G2" t="n">
-        <v>718664.1735180562</v>
-      </c>
-      <c r="H2" t="n">
-        <v>718664.1735180562</v>
-      </c>
-      <c r="I2" t="n">
-        <v>718664.1735180564</v>
-      </c>
-      <c r="J2" t="n">
-        <v>718664.1735180559</v>
-      </c>
-      <c r="K2" t="n">
-        <v>718664.1735180556</v>
-      </c>
       <c r="L2" t="n">
-        <v>718664.173518056</v>
+        <v>718664.1735180558</v>
       </c>
       <c r="M2" t="n">
         <v>718664.1735180557</v>
       </c>
       <c r="N2" t="n">
-        <v>718664.1735180559</v>
+        <v>718664.1735180557</v>
       </c>
       <c r="O2" t="n">
-        <v>718664.1735180562</v>
+        <v>718664.1735180557</v>
       </c>
       <c r="P2" t="n">
-        <v>718664.1735180562</v>
+        <v>718664.1735180558</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147455</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>800078.9672140632</v>
+        <v>800078.9672140635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
         <v>102466.1171957466</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127787.649646889</v>
+        <v>127787.6496468889</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>23402.2523169222</v>
+        <v>23402.25231692217</v>
       </c>
       <c r="F4" t="n">
+        <v>23402.25231692218</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23402.25231692218</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23402.25231692218</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23402.25231692218</v>
+      </c>
+      <c r="J4" t="n">
         <v>23402.25231692215</v>
       </c>
-      <c r="G4" t="n">
-        <v>23402.2523169222</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23402.2523169222</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23402.25231692221</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23402.25231692219</v>
-      </c>
       <c r="K4" t="n">
-        <v>23402.2523169222</v>
+        <v>23402.25231692215</v>
       </c>
       <c r="L4" t="n">
-        <v>23402.25231692219</v>
+        <v>23402.25231692217</v>
       </c>
       <c r="M4" t="n">
-        <v>23402.25231692219</v>
+        <v>23402.25231692217</v>
       </c>
       <c r="N4" t="n">
-        <v>23402.2523169222</v>
+        <v>23402.25231692217</v>
       </c>
       <c r="O4" t="n">
-        <v>23402.25231692219</v>
+        <v>23402.25231692217</v>
       </c>
       <c r="P4" t="n">
-        <v>23402.25231692219</v>
+        <v>23402.25231692217</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>97964.04517358181</v>
+        <v>97964.04517358179</v>
       </c>
       <c r="F5" t="n">
-        <v>97964.04517358178</v>
+        <v>97964.04517358179</v>
       </c>
       <c r="G5" t="n">
-        <v>97964.04517358178</v>
+        <v>97964.04517358179</v>
       </c>
       <c r="H5" t="n">
-        <v>97964.04517358178</v>
+        <v>97964.04517358179</v>
       </c>
       <c r="I5" t="n">
-        <v>97964.04517358181</v>
+        <v>97964.04517358179</v>
       </c>
       <c r="J5" t="n">
         <v>97964.04517358179</v>
@@ -26524,46 +26524,46 @@
         <v>219357.9361947023</v>
       </c>
       <c r="C6" t="n">
-        <v>-3409.893698635569</v>
+        <v>-3409.893698635278</v>
       </c>
       <c r="D6" t="n">
-        <v>437298.18981611</v>
+        <v>437298.1898161103</v>
       </c>
       <c r="E6" t="n">
-        <v>-202781.0911865114</v>
+        <v>-203344.2417242839</v>
       </c>
       <c r="F6" t="n">
-        <v>597297.8760275517</v>
+        <v>596734.7254897796</v>
       </c>
       <c r="G6" t="n">
-        <v>597297.8760275522</v>
+        <v>596734.7254897797</v>
       </c>
       <c r="H6" t="n">
-        <v>597297.8760275522</v>
+        <v>596734.7254897796</v>
       </c>
       <c r="I6" t="n">
-        <v>597297.8760275524</v>
+        <v>596734.7254897794</v>
       </c>
       <c r="J6" t="n">
-        <v>525043.1811564129</v>
+        <v>524480.0306186402</v>
       </c>
       <c r="K6" t="n">
-        <v>494831.758831805</v>
+        <v>494268.6082940329</v>
       </c>
       <c r="L6" t="n">
-        <v>597297.8760275521</v>
+        <v>596734.7254897796</v>
       </c>
       <c r="M6" t="n">
-        <v>469510.2263806628</v>
+        <v>468947.0758428907</v>
       </c>
       <c r="N6" t="n">
-        <v>597297.8760275519</v>
+        <v>596734.7254897795</v>
       </c>
       <c r="O6" t="n">
-        <v>597297.8760275522</v>
+        <v>596734.7254897795</v>
       </c>
       <c r="P6" t="n">
-        <v>597297.8760275522</v>
+        <v>596734.7254897796</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1183.034601495793</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>805.290937278706</v>
+        <v>805.2909372787067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>512.7833006167194</v>
+        <v>512.7833006167192</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.7833006167194</v>
+        <v>512.7833006167192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.7833006167194</v>
+        <v>512.7833006167192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>279.7169944885064</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>248.7162271005659</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>123.2366394249818</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>45.75204669354517</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.57846144115925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>83.80345711763147</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>82.65823507341071</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>131.0703856053968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>97.22710665690141</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060692</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>50.09081239937169</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.54350535328506e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H11" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I11" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J11" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K11" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L11" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M11" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N11" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O11" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P11" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q11" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R11" t="n">
         <v>298.74893381391</v>
@@ -31794,7 +31794,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H12" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I12" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J12" t="n">
         <v>240.412720290763</v>
@@ -31846,25 +31846,25 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L12" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M12" t="n">
-        <v>321.2110448873042</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N12" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O12" t="n">
-        <v>605.4346983711534</v>
+        <v>269.5804665885873</v>
       </c>
       <c r="P12" t="n">
-        <v>485.9147215087153</v>
+        <v>485.9147215087154</v>
       </c>
       <c r="Q12" t="n">
-        <v>324.821123037109</v>
+        <v>324.8211230371091</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>157.9909228186269</v>
       </c>
       <c r="S12" t="n">
         <v>47.2655805408932</v>
@@ -31873,7 +31873,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,10 +31916,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I13" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J13" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K13" t="n">
         <v>247.8554460182988</v>
@@ -31928,28 +31928,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M13" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N13" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O13" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P13" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q13" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R13" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S13" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T13" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U13" t="n">
         <v>0.1163640591635207</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H14" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I14" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J14" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K14" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L14" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M14" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N14" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O14" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P14" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q14" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R14" t="n">
         <v>298.74893381391</v>
@@ -32031,7 +32031,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H15" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I15" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J15" t="n">
         <v>240.412720290763</v>
@@ -32083,22 +32083,22 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L15" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M15" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N15" t="n">
-        <v>338.2757609786917</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O15" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P15" t="n">
-        <v>485.9147215087153</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q15" t="n">
-        <v>324.821123037109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32110,7 +32110,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,10 +32153,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I16" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J16" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K16" t="n">
         <v>247.8554460182988</v>
@@ -32165,28 +32165,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M16" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N16" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O16" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P16" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q16" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R16" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S16" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T16" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U16" t="n">
         <v>0.1163640591635207</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H17" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I17" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J17" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K17" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L17" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M17" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N17" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O17" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P17" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R17" t="n">
         <v>298.74893381391</v>
@@ -32268,7 +32268,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H18" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I18" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J18" t="n">
         <v>240.412720290763</v>
@@ -32320,19 +32320,19 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L18" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M18" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N18" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O18" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2112575319004</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32347,7 +32347,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,10 +32390,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I19" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J19" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K19" t="n">
         <v>247.8554460182988</v>
@@ -32402,28 +32402,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M19" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N19" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O19" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P19" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q19" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R19" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S19" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T19" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U19" t="n">
         <v>0.1163640591635207</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H20" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I20" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J20" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K20" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L20" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M20" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N20" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O20" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P20" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q20" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R20" t="n">
         <v>298.74893381391</v>
@@ -32505,7 +32505,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H21" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I21" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J21" t="n">
         <v>240.412720290763</v>
@@ -32557,25 +32557,25 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L21" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M21" t="n">
-        <v>506.0503938383915</v>
+        <v>308.8996260326409</v>
       </c>
       <c r="N21" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O21" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P21" t="n">
-        <v>485.9147215087153</v>
+        <v>485.9147215087154</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>324.8211230371091</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>157.9909228186269</v>
       </c>
       <c r="S21" t="n">
         <v>47.2655805408932</v>
@@ -32584,7 +32584,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,10 +32627,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I22" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J22" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K22" t="n">
         <v>247.8554460182988</v>
@@ -32639,28 +32639,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M22" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N22" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O22" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P22" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q22" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R22" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S22" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T22" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U22" t="n">
         <v>0.1163640591635207</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H23" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I23" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J23" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K23" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L23" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M23" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N23" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O23" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P23" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q23" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R23" t="n">
         <v>298.74893381391</v>
@@ -32742,7 +32742,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H24" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I24" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J24" t="n">
         <v>240.412720290763</v>
@@ -32794,22 +32794,22 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L24" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M24" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N24" t="n">
-        <v>338.2757609786917</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O24" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P24" t="n">
-        <v>485.9147215087153</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q24" t="n">
-        <v>324.821123037109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32821,7 +32821,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,10 +32864,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I25" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J25" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K25" t="n">
         <v>247.8554460182988</v>
@@ -32876,28 +32876,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M25" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N25" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O25" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P25" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q25" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R25" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S25" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T25" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U25" t="n">
         <v>0.1163640591635207</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H26" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I26" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J26" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K26" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L26" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M26" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N26" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O26" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P26" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q26" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R26" t="n">
         <v>298.74893381391</v>
@@ -32979,7 +32979,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H27" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I27" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J27" t="n">
         <v>240.412720290763</v>
@@ -33031,22 +33031,22 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L27" t="n">
-        <v>228.9678280819954</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M27" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N27" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O27" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P27" t="n">
-        <v>485.9147215087153</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q27" t="n">
-        <v>324.821123037109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33058,7 +33058,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,10 +33101,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I28" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J28" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K28" t="n">
         <v>247.8554460182988</v>
@@ -33113,28 +33113,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M28" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N28" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O28" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P28" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q28" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R28" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S28" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T28" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U28" t="n">
         <v>0.1163640591635207</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H29" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I29" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J29" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K29" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L29" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M29" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N29" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O29" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P29" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q29" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R29" t="n">
         <v>298.74893381391</v>
@@ -33216,7 +33216,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H30" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I30" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J30" t="n">
         <v>240.412720290763</v>
@@ -33268,19 +33268,19 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L30" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M30" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N30" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O30" t="n">
-        <v>466.7312343943382</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P30" t="n">
-        <v>485.9147215087153</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33295,7 +33295,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,10 +33338,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I31" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J31" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K31" t="n">
         <v>247.8554460182988</v>
@@ -33350,28 +33350,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M31" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N31" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O31" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P31" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q31" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R31" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S31" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T31" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U31" t="n">
         <v>0.1163640591635207</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H32" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I32" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J32" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K32" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L32" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M32" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N32" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O32" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P32" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q32" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R32" t="n">
         <v>298.74893381391</v>
@@ -33453,7 +33453,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H33" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I33" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J33" t="n">
         <v>240.412720290763</v>
@@ -33505,22 +33505,22 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L33" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M33" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N33" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O33" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P33" t="n">
-        <v>162.371908580813</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q33" t="n">
-        <v>324.821123037109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33532,7 +33532,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,10 +33575,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I34" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J34" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K34" t="n">
         <v>247.8554460182988</v>
@@ -33587,28 +33587,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M34" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N34" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O34" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P34" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q34" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R34" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S34" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T34" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U34" t="n">
         <v>0.1163640591635207</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H35" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I35" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J35" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K35" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L35" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M35" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N35" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O35" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P35" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q35" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R35" t="n">
         <v>298.74893381391</v>
@@ -33690,7 +33690,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H36" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I36" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J36" t="n">
         <v>240.412720290763</v>
@@ -33742,19 +33742,19 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L36" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M36" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N36" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O36" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P36" t="n">
-        <v>347.2112575319004</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33769,7 +33769,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,10 +33812,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I37" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J37" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K37" t="n">
         <v>247.8554460182988</v>
@@ -33824,28 +33824,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M37" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N37" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O37" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P37" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q37" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R37" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S37" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T37" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U37" t="n">
         <v>0.1163640591635207</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H38" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I38" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J38" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K38" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L38" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M38" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N38" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O38" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P38" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q38" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R38" t="n">
         <v>298.74893381391</v>
@@ -33927,7 +33927,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H39" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I39" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J39" t="n">
         <v>240.412720290763</v>
@@ -33979,22 +33979,22 @@
         <v>410.9036313516095</v>
       </c>
       <c r="L39" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M39" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N39" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O39" t="n">
-        <v>605.4346983711534</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P39" t="n">
-        <v>162.371908580813</v>
+        <v>347.2112575318995</v>
       </c>
       <c r="Q39" t="n">
-        <v>324.821123037109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34006,7 +34006,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,10 +34049,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I40" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J40" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K40" t="n">
         <v>247.8554460182988</v>
@@ -34061,28 +34061,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M40" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N40" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O40" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P40" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q40" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R40" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S40" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T40" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U40" t="n">
         <v>0.1163640591635207</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H41" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I41" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J41" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K41" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L41" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M41" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N41" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O41" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P41" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q41" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R41" t="n">
         <v>298.74893381391</v>
@@ -34164,7 +34164,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H42" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I42" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J42" t="n">
         <v>240.412720290763</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>410.9036313516095</v>
       </c>
       <c r="L42" t="n">
-        <v>489.7186016045828</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M42" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N42" t="n">
-        <v>661.8185739065945</v>
+        <v>661.8185739065946</v>
       </c>
       <c r="O42" t="n">
-        <v>605.4346983711534</v>
+        <v>269.5804665885873</v>
       </c>
       <c r="P42" t="n">
-        <v>485.9147215087153</v>
+        <v>485.9147215087154</v>
       </c>
       <c r="Q42" t="n">
-        <v>324.821123037109</v>
+        <v>324.8211230371091</v>
       </c>
       <c r="R42" t="n">
         <v>157.9909228186269</v>
@@ -34243,7 +34243,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,10 +34286,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I43" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J43" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K43" t="n">
         <v>247.8554460182988</v>
@@ -34298,28 +34298,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M43" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N43" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O43" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P43" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q43" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R43" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S43" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T43" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U43" t="n">
         <v>0.1163640591635207</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.755917995962982</v>
+        <v>4.755917995962983</v>
       </c>
       <c r="H44" t="n">
         <v>48.70654517615591</v>
       </c>
       <c r="I44" t="n">
-        <v>183.352528539363</v>
+        <v>183.3525285393631</v>
       </c>
       <c r="J44" t="n">
-        <v>403.6525950098635</v>
+        <v>403.6525950098636</v>
       </c>
       <c r="K44" t="n">
-        <v>604.9706037789766</v>
+        <v>604.9706037789767</v>
       </c>
       <c r="L44" t="n">
-        <v>750.5195291479289</v>
+        <v>750.5195291479291</v>
       </c>
       <c r="M44" t="n">
-        <v>835.0975858086356</v>
+        <v>835.0975858086357</v>
       </c>
       <c r="N44" t="n">
-        <v>848.6103378146655</v>
+        <v>848.6103378146656</v>
       </c>
       <c r="O44" t="n">
-        <v>801.3186782423085</v>
+        <v>801.3186782423087</v>
       </c>
       <c r="P44" t="n">
-        <v>683.9069527169723</v>
+        <v>683.9069527169725</v>
       </c>
       <c r="Q44" t="n">
-        <v>513.5856394865478</v>
+        <v>513.585639486548</v>
       </c>
       <c r="R44" t="n">
         <v>298.74893381391</v>
@@ -34401,7 +34401,7 @@
         <v>20.81903102732797</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3804734396770385</v>
+        <v>0.3804734396770386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,40 +34438,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.544640463594724</v>
+        <v>2.544640463594725</v>
       </c>
       <c r="H45" t="n">
-        <v>24.57586974050694</v>
+        <v>24.57586974050695</v>
       </c>
       <c r="I45" t="n">
-        <v>87.61152473341485</v>
+        <v>87.61152473341487</v>
       </c>
       <c r="J45" t="n">
         <v>240.412720290763</v>
       </c>
       <c r="K45" t="n">
-        <v>410.9036313516095</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>552.5106410098983</v>
+        <v>552.5106410098984</v>
       </c>
       <c r="M45" t="n">
-        <v>644.753857815207</v>
+        <v>644.7538578152071</v>
       </c>
       <c r="N45" t="n">
-        <v>661.8185739065945</v>
+        <v>599.0265345012789</v>
       </c>
       <c r="O45" t="n">
-        <v>281.8918854432509</v>
+        <v>605.4346983711536</v>
       </c>
       <c r="P45" t="n">
-        <v>485.9147215087153</v>
+        <v>485.9147215087154</v>
       </c>
       <c r="Q45" t="n">
-        <v>324.821123037109</v>
+        <v>324.8211230371091</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>157.9909228186269</v>
       </c>
       <c r="S45" t="n">
         <v>47.2655805408932</v>
@@ -34480,7 +34480,7 @@
         <v>10.25668678089277</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1674105568154424</v>
+        <v>0.1674105568154425</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,10 +34523,10 @@
         <v>18.96734164365387</v>
       </c>
       <c r="I46" t="n">
-        <v>64.15538461882103</v>
+        <v>64.15538461882105</v>
       </c>
       <c r="J46" t="n">
-        <v>150.8272146857832</v>
+        <v>150.8272146857833</v>
       </c>
       <c r="K46" t="n">
         <v>247.8554460182988</v>
@@ -34535,28 +34535,28 @@
         <v>317.169637260036</v>
       </c>
       <c r="M46" t="n">
-        <v>334.4109120260975</v>
+        <v>334.4109120260976</v>
       </c>
       <c r="N46" t="n">
-        <v>326.4593679832572</v>
+        <v>326.4593679832573</v>
       </c>
       <c r="O46" t="n">
         <v>301.5380653124031</v>
       </c>
       <c r="P46" t="n">
-        <v>258.0179071852462</v>
+        <v>258.0179071852463</v>
       </c>
       <c r="Q46" t="n">
         <v>178.6382248258647</v>
       </c>
       <c r="R46" t="n">
-        <v>95.9227727704621</v>
+        <v>95.92277277046213</v>
       </c>
       <c r="S46" t="n">
-        <v>37.17831690274481</v>
+        <v>37.17831690274482</v>
       </c>
       <c r="T46" t="n">
-        <v>9.115184634475776</v>
+        <v>9.115184634475778</v>
       </c>
       <c r="U46" t="n">
         <v>0.1163640591635207</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,13 +34789,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="O3" t="n">
-        <v>7.558968543445864</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355135</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>222.6066904831772</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K11" t="n">
-        <v>384.8807527339961</v>
+        <v>444.0320860236079</v>
       </c>
       <c r="L11" t="n">
-        <v>932.4143287283921</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M11" t="n">
         <v>1054.264886074195</v>
@@ -35424,16 +35424,16 @@
         <v>619.1972742180747</v>
       </c>
       <c r="O11" t="n">
-        <v>571.2204668206217</v>
+        <v>571.2204668206219</v>
       </c>
       <c r="P11" t="n">
-        <v>541.2921014058267</v>
+        <v>452.6739569617029</v>
       </c>
       <c r="Q11" t="n">
-        <v>291.2799496120983</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R11" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L12" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M12" t="n">
-        <v>179.0770109652858</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N12" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O12" t="n">
-        <v>462.838453926709</v>
+        <v>126.9842221441429</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9403140943851</v>
+        <v>351.9403140943852</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.8393489510875</v>
+        <v>184.8393489510876</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.31141885466295</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K13" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L13" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M13" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N13" t="n">
         <v>370.5915403624858</v>
@@ -35588,7 +35588,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.4857028764503</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K14" t="n">
-        <v>384.8807527339961</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L14" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M14" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N14" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O14" t="n">
-        <v>952.0206480833671</v>
+        <v>758.0866254315838</v>
       </c>
       <c r="P14" t="n">
         <v>774.4726651331855</v>
       </c>
       <c r="Q14" t="n">
-        <v>503.594940272003</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R14" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L15" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M15" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N15" t="n">
-        <v>206.9340488953584</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O15" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9403140943851</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.8393489510875</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K16" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L16" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M16" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N16" t="n">
         <v>370.5915403624858</v>
@@ -35825,7 +35825,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>222.6066904831772</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K17" t="n">
-        <v>384.8807527339961</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L17" t="n">
-        <v>932.4143287283921</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M17" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N17" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O17" t="n">
-        <v>952.0206480833671</v>
+        <v>758.0866254315838</v>
       </c>
       <c r="P17" t="n">
-        <v>452.6739569617028</v>
+        <v>774.4726651331855</v>
       </c>
       <c r="Q17" t="n">
-        <v>448.6114462863089</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R17" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L18" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M18" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N18" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O18" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P18" t="n">
-        <v>213.2368501175701</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K19" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L19" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M19" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N19" t="n">
         <v>370.5915403624858</v>
@@ -36062,7 +36062,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>222.6066904831772</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K20" t="n">
-        <v>384.8807527339961</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L20" t="n">
-        <v>932.4143287283921</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M20" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N20" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O20" t="n">
-        <v>952.0206480833671</v>
+        <v>758.0866254315838</v>
       </c>
       <c r="P20" t="n">
-        <v>452.6739569617028</v>
+        <v>774.4726651331855</v>
       </c>
       <c r="Q20" t="n">
-        <v>448.6114462863089</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R20" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L21" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M21" t="n">
-        <v>363.9163599163732</v>
+        <v>166.7655921106225</v>
       </c>
       <c r="N21" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O21" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9403140943851</v>
+        <v>351.9403140943852</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>184.8393489510876</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.31141885466295</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K22" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L22" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M22" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N22" t="n">
         <v>370.5915403624858</v>
@@ -36299,7 +36299,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>391.703305655251</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K23" t="n">
-        <v>709.0261653051608</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L23" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M23" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N23" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O23" t="n">
-        <v>571.2204668206217</v>
+        <v>758.0866254315838</v>
       </c>
       <c r="P23" t="n">
-        <v>702.9098310459667</v>
+        <v>774.4726651331855</v>
       </c>
       <c r="Q23" t="n">
-        <v>503.594940272003</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R23" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L24" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M24" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N24" t="n">
-        <v>206.9340488953584</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O24" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P24" t="n">
-        <v>351.9403140943851</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q24" t="n">
-        <v>184.8393489510875</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K25" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L25" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M25" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N25" t="n">
         <v>370.5915403624858</v>
@@ -36536,7 +36536,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>222.6066904831772</v>
+        <v>222.6066904831773</v>
       </c>
       <c r="K26" t="n">
-        <v>542.2122494082064</v>
+        <v>709.0261653051609</v>
       </c>
       <c r="L26" t="n">
-        <v>932.4143287283921</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M26" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N26" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O26" t="n">
-        <v>952.0206480833671</v>
+        <v>952.0206480833673</v>
       </c>
       <c r="P26" t="n">
-        <v>452.6739569617028</v>
+        <v>703.5212556151967</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.2799496120983</v>
+        <v>291.2799496120984</v>
       </c>
       <c r="R26" t="n">
-        <v>83.16339599977783</v>
+        <v>83.16339599977789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L27" t="n">
-        <v>90.41344830212125</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M27" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N27" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O27" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9403140943851</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q27" t="n">
-        <v>184.8393489510875</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K28" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L28" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M28" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N28" t="n">
         <v>370.5915403624858</v>
@@ -36773,7 +36773,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q28" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>222.6066904831772</v>
+        <v>222.6066904831773</v>
       </c>
       <c r="K29" t="n">
-        <v>473.4988971781194</v>
+        <v>709.0261653051609</v>
       </c>
       <c r="L29" t="n">
-        <v>932.4143287283921</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M29" t="n">
-        <v>1054.264886074195</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N29" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O29" t="n">
-        <v>571.2204668206217</v>
+        <v>952.0206480833673</v>
       </c>
       <c r="P29" t="n">
-        <v>452.6739569617028</v>
+        <v>703.5212556151967</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.2799496120983</v>
+        <v>291.2799496120984</v>
       </c>
       <c r="R29" t="n">
-        <v>83.16339599977783</v>
+        <v>83.16339599977789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L30" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M30" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N30" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O30" t="n">
-        <v>324.1349899498938</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9403140943851</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K31" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L31" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M31" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N31" t="n">
         <v>370.5915403624858</v>
@@ -37010,7 +37010,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q31" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>222.6066904831772</v>
+        <v>263.4857028764499</v>
       </c>
       <c r="K32" t="n">
-        <v>384.8807527339961</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M32" t="n">
-        <v>1054.264886074195</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N32" t="n">
-        <v>803.6779250411655</v>
+        <v>619.1972742180747</v>
       </c>
       <c r="O32" t="n">
-        <v>571.2204668206217</v>
+        <v>952.0206480833673</v>
       </c>
       <c r="P32" t="n">
         <v>774.4726651331855</v>
       </c>
       <c r="Q32" t="n">
-        <v>291.2799496120983</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R32" t="n">
-        <v>83.16339599977783</v>
+        <v>83.16339599977789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M33" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N33" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O33" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P33" t="n">
-        <v>28.39750116648275</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q33" t="n">
-        <v>184.8393489510875</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K34" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L34" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M34" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N34" t="n">
         <v>370.5915403624858</v>
@@ -37247,7 +37247,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q34" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>222.6066904831772</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K35" t="n">
-        <v>709.0261653051608</v>
+        <v>571.7469113449579</v>
       </c>
       <c r="L35" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M35" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N35" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O35" t="n">
-        <v>881.0692385653805</v>
+        <v>571.2204668206219</v>
       </c>
       <c r="P35" t="n">
         <v>774.4726651331855</v>
       </c>
       <c r="Q35" t="n">
-        <v>291.2799496120983</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R35" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L36" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M36" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N36" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O36" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P36" t="n">
-        <v>213.2368501175701</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K37" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L37" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M37" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N37" t="n">
         <v>370.5915403624858</v>
@@ -37484,7 +37484,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q37" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>222.6066904831772</v>
+        <v>391.7033056552511</v>
       </c>
       <c r="K38" t="n">
-        <v>709.0261653051608</v>
+        <v>571.7469113449579</v>
       </c>
       <c r="L38" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M38" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N38" t="n">
-        <v>870.0445728715713</v>
+        <v>619.1972742180747</v>
       </c>
       <c r="O38" t="n">
-        <v>952.0206480833671</v>
+        <v>571.2204668206219</v>
       </c>
       <c r="P38" t="n">
-        <v>452.6739569617028</v>
+        <v>774.4726651331855</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.2799496120983</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R38" t="n">
-        <v>83.16339599977783</v>
+        <v>148.8798158727603</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>273.0621923772505</v>
       </c>
       <c r="L39" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M39" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N39" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O39" t="n">
-        <v>462.838453926709</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39750116648275</v>
+        <v>213.2368501175692</v>
       </c>
       <c r="Q39" t="n">
-        <v>184.8393489510875</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K40" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L40" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M40" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N40" t="n">
         <v>370.5915403624858</v>
@@ -37721,7 +37721,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q40" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6066904831772</v>
+        <v>320.1404715680301</v>
       </c>
       <c r="K41" t="n">
-        <v>709.0261653051608</v>
+        <v>709.0261653051609</v>
       </c>
       <c r="L41" t="n">
-        <v>514.7531141779416</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M41" t="n">
-        <v>604.7513525813629</v>
+        <v>604.751352581363</v>
       </c>
       <c r="N41" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O41" t="n">
-        <v>668.7542479054756</v>
+        <v>571.2204668206219</v>
       </c>
       <c r="P41" t="n">
         <v>774.4726651331855</v>
       </c>
       <c r="Q41" t="n">
-        <v>503.594940272003</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R41" t="n">
-        <v>83.16339599977783</v>
+        <v>83.16339599977789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>113.5750936240963</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>273.0621923772505</v>
       </c>
       <c r="L42" t="n">
-        <v>351.1642218247086</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M42" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N42" t="n">
-        <v>530.4768618232612</v>
+        <v>530.4768618232613</v>
       </c>
       <c r="O42" t="n">
-        <v>462.838453926709</v>
+        <v>126.9842221441429</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9403140943851</v>
+        <v>351.9403140943852</v>
       </c>
       <c r="Q42" t="n">
-        <v>184.8393489510875</v>
+        <v>184.8393489510876</v>
       </c>
       <c r="R42" t="n">
-        <v>12.31141885466292</v>
+        <v>12.31141885466295</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K43" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L43" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M43" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N43" t="n">
         <v>370.5915403624858</v>
@@ -37958,7 +37958,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>391.703305655251</v>
+        <v>222.6066904831773</v>
       </c>
       <c r="K44" t="n">
-        <v>384.8807527339961</v>
+        <v>384.8807527339962</v>
       </c>
       <c r="L44" t="n">
-        <v>851.9358580004415</v>
+        <v>514.7531141779418</v>
       </c>
       <c r="M44" t="n">
-        <v>1054.264886074195</v>
+        <v>1026.430546237381</v>
       </c>
       <c r="N44" t="n">
         <v>619.1972742180747</v>
       </c>
       <c r="O44" t="n">
-        <v>571.2204668206217</v>
+        <v>571.2204668206219</v>
       </c>
       <c r="P44" t="n">
-        <v>452.6739569617028</v>
+        <v>774.4726651331855</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.2799496120983</v>
+        <v>503.5949402720032</v>
       </c>
       <c r="R44" t="n">
-        <v>83.16339599977783</v>
+        <v>83.16339599977789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>113.5750936240963</v>
       </c>
       <c r="K45" t="n">
-        <v>273.0621923772505</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>413.9562612300242</v>
+        <v>413.9562612300243</v>
       </c>
       <c r="M45" t="n">
-        <v>502.6198238931887</v>
+        <v>502.6198238931888</v>
       </c>
       <c r="N45" t="n">
-        <v>530.4768618232612</v>
+        <v>467.6848224179456</v>
       </c>
       <c r="O45" t="n">
-        <v>139.2956409988064</v>
+        <v>462.8384539267091</v>
       </c>
       <c r="P45" t="n">
-        <v>351.9403140943851</v>
+        <v>351.9403140943852</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.8393489510875</v>
+        <v>184.8393489510876</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.31141885466295</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>57.46803456911047</v>
+        <v>57.4680345691105</v>
       </c>
       <c r="K46" t="n">
-        <v>225.5859541924159</v>
+        <v>225.585954192416</v>
       </c>
       <c r="L46" t="n">
-        <v>344.7596625203521</v>
+        <v>344.7596625203522</v>
       </c>
       <c r="M46" t="n">
-        <v>373.9947889879381</v>
+        <v>373.9947889879382</v>
       </c>
       <c r="N46" t="n">
         <v>370.5915403624858</v>
@@ -38195,7 +38195,7 @@
         <v>255.2964664501397</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.4761815741703</v>
+        <v>92.47618157417033</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
